--- a/SQL/表结构字段.xlsx
+++ b/SQL/表结构字段.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APPDATA\git\spring-vue-demo\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CADD7E-2853-4469-8442-DCACB17390CC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933F4670-B041-4EDE-BE68-3B34DF386286}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1200" yWindow="3468" windowWidth="11808" windowHeight="12204" xr2:uid="{A5D7EFC3-ABCC-4745-A4C4-E83C6127E0B5}"/>
+    <workbookView xWindow="1200" yWindow="3468" windowWidth="11808" windowHeight="12204" xr2:uid="{A5D7EFC3-ABCC-4745-A4C4-E83C6127E0B5}"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="88">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -366,6 +366,21 @@
   </si>
   <si>
     <t>eventTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码</t>
+  </si>
+  <si>
+    <t>verifyCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -739,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5818279-7A6B-43E0-A2A0-2B51F561F2B8}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -782,6 +797,9 @@
       <c r="C3" t="s">
         <v>64</v>
       </c>
+      <c r="D3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -793,6 +811,9 @@
       <c r="C4" t="s">
         <v>57</v>
       </c>
+      <c r="D4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -804,6 +825,9 @@
       <c r="C5" t="s">
         <v>57</v>
       </c>
+      <c r="D5" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -815,30 +839,33 @@
       <c r="C6" t="s">
         <v>57</v>
       </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
         <v>76</v>
@@ -846,23 +873,37 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>74</v>
+      </c>
+      <c r="D9" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>78</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>68</v>
       </c>
     </row>
